--- a/eqServer/src/test/resources/example.xlsx
+++ b/eqServer/src/test/resources/example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,7 +968,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,7 +1250,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:L1"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C9">
       <formula1>"Multiple Choice,Blank Field"</formula1>
     </dataValidation>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/eqServer/src/test/resources/example.xlsx
+++ b/eqServer/src/test/resources/example.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F81BD74-1E0E-47D7-BA17-DEFF28FDA3A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
     <sheet name="Questions" sheetId="3" r:id="rId2"/>
-    <sheet name="BlackWhite List" sheetId="4" r:id="rId3"/>
+    <sheet name="BlackWhite_List" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -227,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -808,21 +817,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="50.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="30.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="34.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -845,7 +854,7 @@
         <v>Each student will get different order of questions randomly.This option is good to avoid cheating.</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -857,7 +866,7 @@
         <v>Any student is allowed to join the exam</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="82.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="83" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -869,7 +878,7 @@
         <v>Specify the total time to be the time limit of the whole exam</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="40.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -880,7 +889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -889,7 +898,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="28" t="s">
         <v>57</v>
       </c>
@@ -897,7 +906,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="28" t="s">
         <v>58</v>
       </c>
@@ -905,7 +914,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="28" t="s">
         <v>59</v>
       </c>
@@ -913,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="28" t="s">
         <v>60</v>
       </c>
@@ -921,7 +930,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
         <v>61</v>
       </c>
@@ -929,7 +938,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
         <v>66</v>
       </c>
@@ -942,21 +951,21 @@
     <protectedRange algorithmName="SHA-512" hashValue="cyH+r25KG5q1Fjk/41Wyc+fUzGcjUbf0KqlgxwMZLvPDgGBXyIW2H3PeJfQPlBXGZ/8PaHZqPqIynlqsVFd/Bg==" saltValue="sVzJLxVeTfyccrD35TGxig==" spinCount="100000" sqref="C1:C4" name="Range1"/>
   </protectedRanges>
   <dataValidations count="4">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Must be greater than 0" promptTitle="Enter the Time in Minutes" prompt="You can enter 1.5 to in order to represent 90 seconds." sqref="B6">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Must be greater than 0" promptTitle="Enter the Time in Minutes" prompt="You can enter 1.5 to in order to represent 90 seconds." sqref="B6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Exam Level,Question Level"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Sequence,Random"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"All Students,White List,Black List,"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -964,25 +973,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.90625" style="20" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="9.109375" style="21" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" style="21" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.109375" style="22" collapsed="1"/>
+    <col min="4" max="9" width="9.08984375" style="21" collapsed="1"/>
+    <col min="10" max="10" width="12.90625" style="21" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.08984375" style="22" collapsed="1"/>
     <col min="12" max="12" width="10" style="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12"/>
       <c r="B1" s="31" t="s">
         <v>11</v>
@@ -998,7 +1007,7 @@
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
     </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
@@ -1036,7 +1045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25">
         <v>3</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25">
         <v>4</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25">
         <v>5</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25">
         <v>6</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="25">
         <v>7</v>
       </c>
@@ -1251,13 +1260,13 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C9">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Multiple Choice,Blank Field"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J6" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1268,20 +1277,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="24" collapsed="1"/>
-    <col min="2" max="2" width="16.33203125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.08984375" style="24" collapsed="1"/>
+    <col min="2" max="2" width="16.36328125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>29</v>
       </c>
@@ -1297,7 +1306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>31</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
